--- a/StockPredictor/bin/Debug/Packages/Data/Trades/BIIB/BIIBRandomTrade20.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/BIIB/BIIBRandomTrade20.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -438,6 +438,58 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>10090.120000000001</v>
+      </c>
+      <c r="B4">
+        <v>10073</v>
+      </c>
+      <c r="C4">
+        <v>309.02999999999997</v>
+      </c>
+      <c r="D4">
+        <v>309.55</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.17</v>
+      </c>
+      <c r="G4" s="1">
+        <v>42608.624780092592</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>10107.27</v>
+      </c>
+      <c r="B5">
+        <v>10090.120000000001</v>
+      </c>
+      <c r="C5">
+        <v>309.02999999999997</v>
+      </c>
+      <c r="D5">
+        <v>309.55</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.17</v>
+      </c>
+      <c r="G5" s="1">
+        <v>42608.63784722222</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/BIIB/BIIBRandomTrade20.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/BIIB/BIIBRandomTrade20.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -490,6 +490,32 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>10156.799999999999</v>
+      </c>
+      <c r="B6">
+        <v>10107.27</v>
+      </c>
+      <c r="C6">
+        <v>307.20999999999998</v>
+      </c>
+      <c r="D6">
+        <v>308.70999999999998</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.49</v>
+      </c>
+      <c r="G6" s="1">
+        <v>42609.503946759258</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/BIIB/BIIBRandomTrade20.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/BIIB/BIIBRandomTrade20.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,6 +516,32 @@
         <v>1</v>
       </c>
     </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>10092.81</v>
+      </c>
+      <c r="B7">
+        <v>10156.799999999999</v>
+      </c>
+      <c r="C7">
+        <v>307.87</v>
+      </c>
+      <c r="D7">
+        <v>305.93</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>-0.63</v>
+      </c>
+      <c r="G7" s="1">
+        <v>42612.675358796296</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/BIIB/BIIBRandomTrade20.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/BIIB/BIIBRandomTrade20.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -542,6 +542,84 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>10159.42</v>
+      </c>
+      <c r="B8">
+        <v>10092.81</v>
+      </c>
+      <c r="C8">
+        <v>305.24</v>
+      </c>
+      <c r="D8">
+        <v>307.24</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.66</v>
+      </c>
+      <c r="G8" s="1">
+        <v>42613.766782407409</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>10177.709999999999</v>
+      </c>
+      <c r="B9">
+        <v>10159.42</v>
+      </c>
+      <c r="C9">
+        <v>307.68</v>
+      </c>
+      <c r="D9">
+        <v>308.24</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0.18</v>
+      </c>
+      <c r="G9" s="1">
+        <v>42614.674826388888</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10173.64</v>
+      </c>
+      <c r="B10">
+        <v>10177.709999999999</v>
+      </c>
+      <c r="C10">
+        <v>307.95999999999998</v>
+      </c>
+      <c r="D10">
+        <v>307.83</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>-0.04</v>
+      </c>
+      <c r="G10" s="1">
+        <v>42615.751875000002</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/BIIB/BIIBRandomTrade20.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/BIIB/BIIBRandomTrade20.xlsx
@@ -421,28 +421,28 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>42640.554270833331</v>
+        <v>42642.489594907405</v>
       </c>
       <c r="B3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>10015</v>
+        <v>9975</v>
       </c>
       <c r="D3">
         <v>10000</v>
       </c>
       <c r="E3">
-        <v>311.7</v>
+        <v>315.99</v>
       </c>
       <c r="F3">
-        <v>310.77</v>
+        <v>314.42</v>
       </c>
       <c r="G3" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>-0.3</v>
+        <v>-0.5</v>
       </c>
       <c r="I3" t="b">
         <v>0</v>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/BIIB/BIIBRandomTrade20.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/BIIB/BIIBRandomTrade20.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -448,6 +448,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42643.487488425926</v>
+      </c>
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>9956.0499999999993</v>
+      </c>
+      <c r="D4">
+        <v>9975</v>
+      </c>
+      <c r="E4">
+        <v>310.17</v>
+      </c>
+      <c r="F4">
+        <v>310.76</v>
+      </c>
+      <c r="G4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0.19</v>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/BIIB/BIIBRandomTrade20.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/BIIB/BIIBRandomTrade20.xlsx
@@ -369,20 +369,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -475,6 +476,35 @@
       </c>
       <c r="I4" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42644.480173611111</v>
+      </c>
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>9975.4599999999991</v>
+      </c>
+      <c r="D5">
+        <v>9956.0499999999993</v>
+      </c>
+      <c r="E5">
+        <v>306.58999999999997</v>
+      </c>
+      <c r="F5">
+        <v>307.77999999999997</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0.39</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/BIIB/BIIBRandomTrade20.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/BIIB/BIIBRandomTrade20.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -507,6 +507,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>42648.454398148147</v>
+      </c>
+      <c r="B6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>9997.41</v>
+      </c>
+      <c r="D6">
+        <v>9975.4599999999991</v>
+      </c>
+      <c r="E6">
+        <v>311.94</v>
+      </c>
+      <c r="F6">
+        <v>313.3</v>
+      </c>
+      <c r="G6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0.44</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/BIIB/BIIBRandomTrade20.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/BIIB/BIIBRandomTrade20.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -377,9 +377,9 @@
   <cols>
     <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
@@ -536,6 +536,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>42649.655740740738</v>
+      </c>
+      <c r="B7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>10084.39</v>
+      </c>
+      <c r="D7">
+        <v>9997.41</v>
+      </c>
+      <c r="E7">
+        <v>313.26998900000001</v>
+      </c>
+      <c r="F7">
+        <v>310.52999999999997</v>
+      </c>
+      <c r="G7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>-0.87</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/BIIB/BIIBRandomTrade20.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/BIIB/BIIBRandomTrade20.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -565,6 +565,35 @@
         <v>1</v>
       </c>
     </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>42650.371990740743</v>
+      </c>
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>10141.870000000001</v>
+      </c>
+      <c r="D8">
+        <v>10084.39</v>
+      </c>
+      <c r="E8">
+        <v>308.29998799999998</v>
+      </c>
+      <c r="F8">
+        <v>306.52999999999997</v>
+      </c>
+      <c r="G8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/BIIB/BIIBRandomTrade20.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/BIIB/BIIBRandomTrade20.xlsx
@@ -369,13 +369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
@@ -594,6 +594,35 @@
         <v>1</v>
       </c>
     </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>42654.74627314815</v>
+      </c>
+      <c r="B9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>10134.26</v>
+      </c>
+      <c r="D9">
+        <v>10141.870000000001</v>
+      </c>
+      <c r="E9">
+        <v>308</v>
+      </c>
+      <c r="F9">
+        <v>308.45999999999998</v>
+      </c>
+      <c r="G9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0.15</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
